--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.210564</v>
+        <v>61.21056</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>62.00132</v>
+        <v>62.001316</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>62.206337</v>
+        <v>62.206329</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.655407</v>
+        <v>62.655399</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.573086</v>
+        <v>63.573078</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -664,7 +664,7 @@
         <v>66.269997</v>
       </c>
       <c r="F9" t="n">
-        <v>64.69575500000001</v>
+        <v>64.695747</v>
       </c>
       <c r="G9" t="n">
         <v>1123100</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>64.168594</v>
+        <v>64.168587</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.826897</v>
+        <v>63.826885</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.271736</v>
+        <v>65.271744</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.881248</v>
+        <v>64.881241</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.944046</v>
+        <v>63.944057</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.621887</v>
+        <v>63.621883</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -839,7 +839,7 @@
         <v>66.06999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>64.500511</v>
+        <v>64.500496</v>
       </c>
       <c r="G16" t="n">
         <v>690100</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.6567</v>
+        <v>64.65670799999999</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.963573</v>
+        <v>63.963566</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.45167499999999</v>
+        <v>64.451691</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -989,7 +989,7 @@
         <v>66.589996</v>
       </c>
       <c r="F22" t="n">
-        <v>65.167068</v>
+        <v>65.167084</v>
       </c>
       <c r="G22" t="n">
         <v>2063900</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.264938</v>
+        <v>65.26494599999999</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1039,7 +1039,7 @@
         <v>65.709999</v>
       </c>
       <c r="F24" t="n">
-        <v>64.30587800000001</v>
+        <v>64.305885</v>
       </c>
       <c r="G24" t="n">
         <v>1070600</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.826363</v>
+        <v>63.826351</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.346817</v>
+        <v>63.346828</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.620831</v>
+        <v>63.620842</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>63.063015</v>
+        <v>63.063019</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.22139</v>
+        <v>62.221401</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.438488</v>
+        <v>61.438484</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1289,7 +1289,7 @@
         <v>63.200001</v>
       </c>
       <c r="F34" t="n">
-        <v>61.849514</v>
+        <v>61.84951</v>
       </c>
       <c r="G34" t="n">
         <v>732100</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.714294</v>
+        <v>60.714302</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>61.164474</v>
+        <v>61.164471</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1389,7 +1389,7 @@
         <v>62.290001</v>
       </c>
       <c r="F38" t="n">
-        <v>60.958961</v>
+        <v>60.958958</v>
       </c>
       <c r="G38" t="n">
         <v>1065300</v>
@@ -1414,7 +1414,7 @@
         <v>62.470001</v>
       </c>
       <c r="F39" t="n">
-        <v>61.135113</v>
+        <v>61.135109</v>
       </c>
       <c r="G39" t="n">
         <v>608700</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.399345</v>
+        <v>61.399342</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.664585</v>
+        <v>60.664577</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.478809</v>
+        <v>61.478806</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>61.086411</v>
+        <v>61.086407</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.41013</v>
+        <v>61.410133</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.478809</v>
+        <v>61.478806</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.675003</v>
+        <v>61.675007</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.666424</v>
+        <v>63.66642</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.999958</v>
+        <v>63.99995</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>63.02877</v>
+        <v>63.028774</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>64.205956</v>
+        <v>64.205963</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.715462</v>
+        <v>63.715477</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.510086</v>
+        <v>64.510071</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>64.019577</v>
+        <v>64.019569</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.333488</v>
+        <v>64.333496</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.598366</v>
+        <v>64.598358</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.254406</v>
+        <v>63.254402</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.332874</v>
+        <v>63.332878</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>63.166107</v>
+        <v>63.166111</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -2014,7 +2014,7 @@
         <v>65.510002</v>
       </c>
       <c r="F63" t="n">
-        <v>64.264816</v>
+        <v>64.264824</v>
       </c>
       <c r="G63" t="n">
         <v>984700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.61592899999999</v>
+        <v>64.615936</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2064,7 +2064,7 @@
         <v>66.08000199999999</v>
       </c>
       <c r="F65" t="n">
-        <v>64.989655</v>
+        <v>64.98967</v>
       </c>
       <c r="G65" t="n">
         <v>690900</v>
@@ -2114,7 +2114,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.727295</v>
+        <v>65.727287</v>
       </c>
       <c r="G67" t="n">
         <v>885000</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.399574</v>
+        <v>64.399559</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.819298</v>
+        <v>63.819294</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>63.101345</v>
+        <v>63.101349</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.258701</v>
+        <v>63.258705</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2339,7 +2339,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>63.750446</v>
+        <v>63.750454</v>
       </c>
       <c r="G76" t="n">
         <v>1076800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.406231</v>
+        <v>63.406223</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.28154000000001</v>
+        <v>64.281532</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.68161</v>
+        <v>63.681614</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.59626</v>
+        <v>64.59627500000001</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.951725</v>
+        <v>62.951721</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.351753</v>
+        <v>64.35174600000001</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.75597399999999</v>
+        <v>64.755989</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2589,7 +2589,7 @@
         <v>65.160004</v>
       </c>
       <c r="F86" t="n">
-        <v>64.24329400000001</v>
+        <v>64.243301</v>
       </c>
       <c r="G86" t="n">
         <v>1471100</v>
@@ -2614,7 +2614,7 @@
         <v>64.849998</v>
       </c>
       <c r="F87" t="n">
-        <v>63.937664</v>
+        <v>63.937649</v>
       </c>
       <c r="G87" t="n">
         <v>3821600</v>
@@ -2639,7 +2639,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>63.168633</v>
+        <v>63.168636</v>
       </c>
       <c r="G88" t="n">
         <v>1507200</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.981308</v>
+        <v>62.981304</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2689,7 +2689,7 @@
         <v>64.470001</v>
       </c>
       <c r="F90" t="n">
-        <v>63.563007</v>
+        <v>63.563004</v>
       </c>
       <c r="G90" t="n">
         <v>1072100</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.681313</v>
+        <v>63.681309</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2764,7 +2764,7 @@
         <v>63.950001</v>
       </c>
       <c r="F93" t="n">
-        <v>63.050323</v>
+        <v>63.05032</v>
       </c>
       <c r="G93" t="n">
         <v>1566900</v>
@@ -2814,7 +2814,7 @@
         <v>63.610001</v>
       </c>
       <c r="F95" t="n">
-        <v>62.715103</v>
+        <v>62.715107</v>
       </c>
       <c r="G95" t="n">
         <v>842900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.808048</v>
+        <v>61.808052</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.453117</v>
+        <v>61.453114</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.246067</v>
+        <v>61.246063</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -3014,7 +3014,7 @@
         <v>63.139999</v>
       </c>
       <c r="F103" t="n">
-        <v>62.25172</v>
+        <v>62.251717</v>
       </c>
       <c r="G103" t="n">
         <v>1069200</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.79398</v>
+        <v>62.793976</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.427231</v>
+        <v>62.427227</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.427231</v>
+        <v>62.427227</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3339,7 +3339,7 @@
         <v>63.389999</v>
       </c>
       <c r="F116" t="n">
-        <v>62.664474</v>
+        <v>62.664478</v>
       </c>
       <c r="G116" t="n">
         <v>1007300</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>63.188408</v>
+        <v>63.188412</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3414,7 +3414,7 @@
         <v>63.240002</v>
       </c>
       <c r="F119" t="n">
-        <v>62.516193</v>
+        <v>62.516197</v>
       </c>
       <c r="G119" t="n">
         <v>856300</v>
@@ -3514,7 +3514,7 @@
         <v>63.959999</v>
       </c>
       <c r="F123" t="n">
-        <v>63.227955</v>
+        <v>63.227959</v>
       </c>
       <c r="G123" t="n">
         <v>1397500</v>
@@ -3539,7 +3539,7 @@
         <v>62.889999</v>
       </c>
       <c r="F124" t="n">
-        <v>62.1702</v>
+        <v>62.170204</v>
       </c>
       <c r="G124" t="n">
         <v>3689200</v>
@@ -3664,7 +3664,7 @@
         <v>61.279999</v>
       </c>
       <c r="F129" t="n">
-        <v>60.736374</v>
+        <v>60.73637</v>
       </c>
       <c r="G129" t="n">
         <v>2731500</v>
@@ -3689,7 +3689,7 @@
         <v>61.400002</v>
       </c>
       <c r="F130" t="n">
-        <v>60.855309</v>
+        <v>60.855312</v>
       </c>
       <c r="G130" t="n">
         <v>2814100</v>
@@ -3714,7 +3714,7 @@
         <v>61.669998</v>
       </c>
       <c r="F131" t="n">
-        <v>61.122913</v>
+        <v>61.12291</v>
       </c>
       <c r="G131" t="n">
         <v>1546100</v>
@@ -3739,7 +3739,7 @@
         <v>62.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>61.826614</v>
+        <v>61.826618</v>
       </c>
       <c r="G132" t="n">
         <v>2163600</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>62.163605</v>
+        <v>62.163601</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.421295</v>
+        <v>62.421291</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3864,7 +3864,7 @@
         <v>63.619999</v>
       </c>
       <c r="F137" t="n">
-        <v>63.055618</v>
+        <v>63.055614</v>
       </c>
       <c r="G137" t="n">
         <v>10552200</v>
@@ -3914,7 +3914,7 @@
         <v>62.91</v>
       </c>
       <c r="F139" t="n">
-        <v>62.351913</v>
+        <v>62.351917</v>
       </c>
       <c r="G139" t="n">
         <v>3462100</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.99511</v>
+        <v>61.995106</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -3989,7 +3989,7 @@
         <v>62.669998</v>
       </c>
       <c r="F142" t="n">
-        <v>62.11404</v>
+        <v>62.114044</v>
       </c>
       <c r="G142" t="n">
         <v>1054600</v>

--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.21056</v>
+        <v>61.210564</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>62.001316</v>
+        <v>62.00132</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>62.206329</v>
+        <v>62.206326</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.602367</v>
+        <v>63.602356</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.655399</v>
+        <v>62.655407</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.573078</v>
+        <v>63.573082</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.826885</v>
+        <v>63.826889</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.271744</v>
+        <v>65.27172899999999</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.881241</v>
+        <v>64.88123299999999</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.944057</v>
+        <v>63.944046</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.621883</v>
+        <v>63.621887</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.363823</v>
+        <v>64.363831</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.963566</v>
+        <v>63.963573</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.451691</v>
+        <v>64.451683</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -989,7 +989,7 @@
         <v>66.589996</v>
       </c>
       <c r="F22" t="n">
-        <v>65.167084</v>
+        <v>65.167068</v>
       </c>
       <c r="G22" t="n">
         <v>2063900</v>
@@ -1039,7 +1039,7 @@
         <v>65.709999</v>
       </c>
       <c r="F24" t="n">
-        <v>64.305885</v>
+        <v>64.30587800000001</v>
       </c>
       <c r="G24" t="n">
         <v>1070600</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.826351</v>
+        <v>63.826355</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.346828</v>
+        <v>63.346836</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.620842</v>
+        <v>63.620827</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.221401</v>
+        <v>62.221394</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.438484</v>
+        <v>61.438488</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1289,7 +1289,7 @@
         <v>63.200001</v>
       </c>
       <c r="F34" t="n">
-        <v>61.84951</v>
+        <v>61.849514</v>
       </c>
       <c r="G34" t="n">
         <v>732100</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>61.164471</v>
+        <v>61.164474</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1414,7 +1414,7 @@
         <v>62.470001</v>
       </c>
       <c r="F39" t="n">
-        <v>61.135109</v>
+        <v>61.135117</v>
       </c>
       <c r="G39" t="n">
         <v>608700</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.399342</v>
+        <v>61.399345</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.664577</v>
+        <v>60.664581</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.478806</v>
+        <v>61.478802</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.478806</v>
+        <v>61.478802</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.675007</v>
+        <v>61.675003</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.66642</v>
+        <v>63.666428</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>63.028774</v>
+        <v>63.02877</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>64.205963</v>
+        <v>64.205956</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.715477</v>
+        <v>63.715466</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.510071</v>
+        <v>64.51007799999999</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1814,7 +1814,7 @@
         <v>64.629997</v>
       </c>
       <c r="F55" t="n">
-        <v>63.401554</v>
+        <v>63.40155</v>
       </c>
       <c r="G55" t="n">
         <v>602500</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.254402</v>
+        <v>63.254398</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.332878</v>
+        <v>63.33287</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>63.166111</v>
+        <v>63.166107</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.480026</v>
+        <v>63.480034</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2064,7 +2064,7 @@
         <v>66.08000199999999</v>
       </c>
       <c r="F65" t="n">
-        <v>64.98967</v>
+        <v>64.989655</v>
       </c>
       <c r="G65" t="n">
         <v>690900</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.61911000000001</v>
+        <v>65.619102</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.399559</v>
+        <v>64.399567</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.819294</v>
+        <v>63.819298</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.258705</v>
+        <v>63.258701</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2389,7 +2389,7 @@
         <v>65.05999799999999</v>
       </c>
       <c r="F78" t="n">
-        <v>63.986496</v>
+        <v>63.986488</v>
       </c>
       <c r="G78" t="n">
         <v>543300</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.681614</v>
+        <v>63.68161</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.59627500000001</v>
+        <v>64.59626</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.951721</v>
+        <v>62.951725</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.35174600000001</v>
+        <v>64.351738</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2639,7 +2639,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>63.168636</v>
+        <v>63.168633</v>
       </c>
       <c r="G88" t="n">
         <v>1507200</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.981304</v>
+        <v>62.981312</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.681309</v>
+        <v>63.681313</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2789,7 +2789,7 @@
         <v>63.77</v>
       </c>
       <c r="F94" t="n">
-        <v>62.872856</v>
+        <v>62.872852</v>
       </c>
       <c r="G94" t="n">
         <v>1238700</v>
@@ -2814,7 +2814,7 @@
         <v>63.610001</v>
       </c>
       <c r="F95" t="n">
-        <v>62.715107</v>
+        <v>62.715103</v>
       </c>
       <c r="G95" t="n">
         <v>842900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.808052</v>
+        <v>61.808044</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.453114</v>
+        <v>61.453117</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.246063</v>
+        <v>61.246067</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.793976</v>
+        <v>62.79398</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>63.020359</v>
+        <v>63.020355</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3139,7 +3139,7 @@
         <v>63.330002</v>
       </c>
       <c r="F108" t="n">
-        <v>62.605171</v>
+        <v>62.605167</v>
       </c>
       <c r="G108" t="n">
         <v>862300</v>
@@ -3164,7 +3164,7 @@
         <v>62.43</v>
       </c>
       <c r="F109" t="n">
-        <v>61.715469</v>
+        <v>61.715466</v>
       </c>
       <c r="G109" t="n">
         <v>1401500</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.90329</v>
+        <v>61.903294</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.881962</v>
+        <v>62.881958</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3364,7 +3364,7 @@
         <v>63.77</v>
       </c>
       <c r="F117" t="n">
-        <v>63.040134</v>
+        <v>63.040131</v>
       </c>
       <c r="G117" t="n">
         <v>1103600</v>
@@ -3439,7 +3439,7 @@
         <v>63.77</v>
       </c>
       <c r="F120" t="n">
-        <v>63.040134</v>
+        <v>63.040131</v>
       </c>
       <c r="G120" t="n">
         <v>1044200</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.941273</v>
+        <v>62.941277</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3514,7 +3514,7 @@
         <v>63.959999</v>
       </c>
       <c r="F123" t="n">
-        <v>63.227959</v>
+        <v>63.227951</v>
       </c>
       <c r="G123" t="n">
         <v>1397500</v>
@@ -3539,7 +3539,7 @@
         <v>62.889999</v>
       </c>
       <c r="F124" t="n">
-        <v>62.170204</v>
+        <v>62.1702</v>
       </c>
       <c r="G124" t="n">
         <v>3689200</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>61.033714</v>
+        <v>61.03371</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3664,7 +3664,7 @@
         <v>61.279999</v>
       </c>
       <c r="F129" t="n">
-        <v>60.73637</v>
+        <v>60.736374</v>
       </c>
       <c r="G129" t="n">
         <v>2731500</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.421291</v>
+        <v>62.421295</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.302357</v>
+        <v>62.302353</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3914,7 +3914,7 @@
         <v>62.91</v>
       </c>
       <c r="F139" t="n">
-        <v>62.351917</v>
+        <v>62.351913</v>
       </c>
       <c r="G139" t="n">
         <v>3462100</v>
@@ -3989,7 +3989,7 @@
         <v>62.669998</v>
       </c>
       <c r="F142" t="n">
-        <v>62.114044</v>
+        <v>62.11404</v>
       </c>
       <c r="G142" t="n">
         <v>1054600</v>
@@ -5643,6 +5643,31 @@
       </c>
       <c r="G208" t="n">
         <v>1746900</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>52.700001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>53.055</v>
+      </c>
+      <c r="D209" t="n">
+        <v>52.380001</v>
+      </c>
+      <c r="E209" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="F209" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2192654</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>62.00132</v>
+        <v>62.001316</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>62.206326</v>
+        <v>62.206333</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -564,7 +564,7 @@
         <v>64.83000199999999</v>
       </c>
       <c r="F5" t="n">
-        <v>63.289963</v>
+        <v>63.289967</v>
       </c>
       <c r="G5" t="n">
         <v>1327600</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.602356</v>
+        <v>63.602371</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.655407</v>
+        <v>62.655403</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.573082</v>
+        <v>63.573071</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -664,7 +664,7 @@
         <v>66.269997</v>
       </c>
       <c r="F9" t="n">
-        <v>64.695747</v>
+        <v>64.69575500000001</v>
       </c>
       <c r="G9" t="n">
         <v>1123100</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>64.168587</v>
+        <v>64.168594</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.826889</v>
+        <v>63.826881</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.27172899999999</v>
+        <v>65.27175099999999</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.88123299999999</v>
+        <v>64.881241</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.944046</v>
+        <v>63.944054</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.621887</v>
+        <v>63.621883</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -839,7 +839,7 @@
         <v>66.06999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>64.500496</v>
+        <v>64.50050400000001</v>
       </c>
       <c r="G16" t="n">
         <v>690100</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.363831</v>
+        <v>64.363838</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.963573</v>
+        <v>63.963566</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.26494599999999</v>
+        <v>65.264938</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.826355</v>
+        <v>63.826351</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.346836</v>
+        <v>63.346828</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.620827</v>
+        <v>63.620834</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1164,7 +1164,7 @@
         <v>63.75</v>
       </c>
       <c r="F29" t="n">
-        <v>62.38776</v>
+        <v>62.387764</v>
       </c>
       <c r="G29" t="n">
         <v>998200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.730282</v>
+        <v>62.730278</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.221394</v>
+        <v>62.221397</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1289,7 +1289,7 @@
         <v>63.200001</v>
       </c>
       <c r="F34" t="n">
-        <v>61.849514</v>
+        <v>61.84951</v>
       </c>
       <c r="G34" t="n">
         <v>732100</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.714302</v>
+        <v>60.714298</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.712505</v>
+        <v>61.712509</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1389,7 +1389,7 @@
         <v>62.290001</v>
       </c>
       <c r="F38" t="n">
-        <v>60.958958</v>
+        <v>60.958961</v>
       </c>
       <c r="G38" t="n">
         <v>1065300</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.664581</v>
+        <v>60.664577</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>61.086407</v>
+        <v>61.086411</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.666428</v>
+        <v>63.66642</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.99995</v>
+        <v>63.999958</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>63.02877</v>
+        <v>63.028774</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>64.205956</v>
+        <v>64.205963</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.51007799999999</v>
+        <v>64.510086</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>64.019569</v>
+        <v>64.019577</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1839,7 +1839,7 @@
         <v>65.5</v>
       </c>
       <c r="F56" t="n">
-        <v>64.25502</v>
+        <v>64.25501300000001</v>
       </c>
       <c r="G56" t="n">
         <v>964200</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.333496</v>
+        <v>64.333504</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.598358</v>
+        <v>64.59835099999999</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.254398</v>
+        <v>63.254402</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.33287</v>
+        <v>63.332878</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>63.166107</v>
+        <v>63.166111</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.480034</v>
+        <v>63.480026</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2014,7 +2014,7 @@
         <v>65.510002</v>
       </c>
       <c r="F63" t="n">
-        <v>64.264824</v>
+        <v>64.264832</v>
       </c>
       <c r="G63" t="n">
         <v>984700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.615936</v>
+        <v>64.61592899999999</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2064,7 +2064,7 @@
         <v>66.08000199999999</v>
       </c>
       <c r="F65" t="n">
-        <v>64.989655</v>
+        <v>64.98967</v>
       </c>
       <c r="G65" t="n">
         <v>690900</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.619102</v>
+        <v>65.61911000000001</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.822479</v>
+        <v>64.822472</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2164,7 +2164,7 @@
         <v>65.989998</v>
       </c>
       <c r="F69" t="n">
-        <v>64.901146</v>
+        <v>64.901138</v>
       </c>
       <c r="G69" t="n">
         <v>474700</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.399567</v>
+        <v>64.399559</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.819298</v>
+        <v>63.819302</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>63.101349</v>
+        <v>63.101353</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.258701</v>
+        <v>63.258705</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.406223</v>
+        <v>63.406231</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2389,7 +2389,7 @@
         <v>65.05999799999999</v>
       </c>
       <c r="F78" t="n">
-        <v>63.986488</v>
+        <v>63.986496</v>
       </c>
       <c r="G78" t="n">
         <v>543300</v>
@@ -2414,7 +2414,7 @@
         <v>65.989998</v>
       </c>
       <c r="F79" t="n">
-        <v>64.901146</v>
+        <v>64.901138</v>
       </c>
       <c r="G79" t="n">
         <v>1060400</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.281532</v>
+        <v>64.281548</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.59626</v>
+        <v>64.59625200000001</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.351738</v>
+        <v>64.35174600000001</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.755989</v>
+        <v>64.75599699999999</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2614,7 +2614,7 @@
         <v>64.849998</v>
       </c>
       <c r="F87" t="n">
-        <v>63.937649</v>
+        <v>63.937656</v>
       </c>
       <c r="G87" t="n">
         <v>3821600</v>
@@ -2689,7 +2689,7 @@
         <v>64.470001</v>
       </c>
       <c r="F90" t="n">
-        <v>63.563004</v>
+        <v>63.563007</v>
       </c>
       <c r="G90" t="n">
         <v>1072100</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.681313</v>
+        <v>63.68132</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2789,7 +2789,7 @@
         <v>63.77</v>
       </c>
       <c r="F94" t="n">
-        <v>62.872852</v>
+        <v>62.872856</v>
       </c>
       <c r="G94" t="n">
         <v>1238700</v>
@@ -2839,7 +2839,7 @@
         <v>63.099998</v>
       </c>
       <c r="F96" t="n">
-        <v>62.21228</v>
+        <v>62.212276</v>
       </c>
       <c r="G96" t="n">
         <v>967600</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.808044</v>
+        <v>61.808048</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2889,7 +2889,7 @@
         <v>62.450001</v>
       </c>
       <c r="F98" t="n">
-        <v>61.571423</v>
+        <v>61.571426</v>
       </c>
       <c r="G98" t="n">
         <v>1482500</v>
@@ -2914,7 +2914,7 @@
         <v>62.59</v>
       </c>
       <c r="F99" t="n">
-        <v>61.709457</v>
+        <v>61.709454</v>
       </c>
       <c r="G99" t="n">
         <v>1003600</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.453117</v>
+        <v>61.453114</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.246067</v>
+        <v>61.246063</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -2989,7 +2989,7 @@
         <v>62.490002</v>
       </c>
       <c r="F102" t="n">
-        <v>61.610863</v>
+        <v>61.61087</v>
       </c>
       <c r="G102" t="n">
         <v>2730800</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>63.020355</v>
+        <v>63.020359</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3164,7 +3164,7 @@
         <v>62.43</v>
       </c>
       <c r="F109" t="n">
-        <v>61.715466</v>
+        <v>61.715469</v>
       </c>
       <c r="G109" t="n">
         <v>1401500</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.903294</v>
+        <v>61.90329</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.881958</v>
+        <v>62.881962</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3339,7 +3339,7 @@
         <v>63.389999</v>
       </c>
       <c r="F116" t="n">
-        <v>62.664478</v>
+        <v>62.664482</v>
       </c>
       <c r="G116" t="n">
         <v>1007300</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.941277</v>
+        <v>62.941273</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3514,7 +3514,7 @@
         <v>63.959999</v>
       </c>
       <c r="F123" t="n">
-        <v>63.227951</v>
+        <v>63.227959</v>
       </c>
       <c r="G123" t="n">
         <v>1397500</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>61.03371</v>
+        <v>61.033714</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3664,7 +3664,7 @@
         <v>61.279999</v>
       </c>
       <c r="F129" t="n">
-        <v>60.736374</v>
+        <v>60.73637</v>
       </c>
       <c r="G129" t="n">
         <v>2731500</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.421295</v>
+        <v>62.421291</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.302353</v>
+        <v>62.302357</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3914,7 +3914,7 @@
         <v>62.91</v>
       </c>
       <c r="F139" t="n">
-        <v>62.351913</v>
+        <v>62.351917</v>
       </c>
       <c r="G139" t="n">
         <v>3462100</v>
@@ -3989,7 +3989,7 @@
         <v>62.669998</v>
       </c>
       <c r="F142" t="n">
-        <v>62.11404</v>
+        <v>62.114044</v>
       </c>
       <c r="G142" t="n">
         <v>1054600</v>
@@ -5655,7 +5655,7 @@
         <v>52.700001</v>
       </c>
       <c r="C209" t="n">
-        <v>53.055</v>
+        <v>53.060001</v>
       </c>
       <c r="D209" t="n">
         <v>52.380001</v>
@@ -5667,7 +5667,7 @@
         <v>52.84</v>
       </c>
       <c r="G209" t="n">
-        <v>2192654</v>
+        <v>2193400</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.210564</v>
+        <v>61.001137</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>62.001316</v>
+        <v>61.789185</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>62.206333</v>
+        <v>61.993492</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -564,7 +564,7 @@
         <v>64.83000199999999</v>
       </c>
       <c r="F5" t="n">
-        <v>63.289967</v>
+        <v>63.073421</v>
       </c>
       <c r="G5" t="n">
         <v>1327600</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.602371</v>
+        <v>63.384754</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.655403</v>
+        <v>62.441029</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.573071</v>
+        <v>63.355572</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -664,7 +664,7 @@
         <v>66.269997</v>
       </c>
       <c r="F9" t="n">
-        <v>64.69575500000001</v>
+        <v>64.474396</v>
       </c>
       <c r="G9" t="n">
         <v>1123100</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>64.168594</v>
+        <v>63.949051</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.826881</v>
+        <v>63.608517</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.27175099999999</v>
+        <v>65.048416</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.881241</v>
+        <v>64.65924800000001</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.944054</v>
+        <v>63.725266</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.621883</v>
+        <v>63.404205</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -839,7 +839,7 @@
         <v>66.06999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>64.50050400000001</v>
+        <v>64.279816</v>
       </c>
       <c r="G16" t="n">
         <v>690100</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.65670799999999</v>
+        <v>64.435501</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.363838</v>
+        <v>64.14362300000001</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -914,7 +914,7 @@
         <v>65.75</v>
       </c>
       <c r="F19" t="n">
-        <v>64.18810999999999</v>
+        <v>63.968487</v>
       </c>
       <c r="G19" t="n">
         <v>893500</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.963566</v>
+        <v>63.74472</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.451683</v>
+        <v>64.231178</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -989,7 +989,7 @@
         <v>66.589996</v>
       </c>
       <c r="F22" t="n">
-        <v>65.167068</v>
+        <v>64.944107</v>
       </c>
       <c r="G22" t="n">
         <v>2063900</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.264938</v>
+        <v>65.041641</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1039,7 +1039,7 @@
         <v>65.709999</v>
       </c>
       <c r="F24" t="n">
-        <v>64.30587800000001</v>
+        <v>64.085854</v>
       </c>
       <c r="G24" t="n">
         <v>1070600</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.826351</v>
+        <v>63.607975</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.346828</v>
+        <v>63.130085</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.620834</v>
+        <v>63.403172</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>63.063019</v>
+        <v>62.84726</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1164,7 +1164,7 @@
         <v>63.75</v>
       </c>
       <c r="F29" t="n">
-        <v>62.387764</v>
+        <v>62.174313</v>
       </c>
       <c r="G29" t="n">
         <v>998200</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.906433</v>
+        <v>62.691208</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.730278</v>
+        <v>62.515656</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.221397</v>
+        <v>62.008514</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.438488</v>
+        <v>61.228271</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1289,7 +1289,7 @@
         <v>63.200001</v>
       </c>
       <c r="F34" t="n">
-        <v>61.84951</v>
+        <v>61.637897</v>
       </c>
       <c r="G34" t="n">
         <v>732100</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.714298</v>
+        <v>60.506573</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>61.164474</v>
+        <v>60.955208</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.712509</v>
+        <v>61.501358</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1389,7 +1389,7 @@
         <v>62.290001</v>
       </c>
       <c r="F38" t="n">
-        <v>60.958961</v>
+        <v>60.750397</v>
       </c>
       <c r="G38" t="n">
         <v>1065300</v>
@@ -1414,7 +1414,7 @@
         <v>62.470001</v>
       </c>
       <c r="F39" t="n">
-        <v>61.135117</v>
+        <v>60.925945</v>
       </c>
       <c r="G39" t="n">
         <v>608700</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.399345</v>
+        <v>61.189266</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.664577</v>
+        <v>60.457024</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1489,7 +1489,7 @@
         <v>61.349998</v>
       </c>
       <c r="F42" t="n">
-        <v>60.183891</v>
+        <v>59.977978</v>
       </c>
       <c r="G42" t="n">
         <v>1611500</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.478802</v>
+        <v>61.268456</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>61.086411</v>
+        <v>60.877403</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.410133</v>
+        <v>61.20002</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.478802</v>
+        <v>61.268456</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.675003</v>
+        <v>61.463985</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.66642</v>
+        <v>63.448582</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.999958</v>
+        <v>63.780972</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>63.028774</v>
+        <v>62.813122</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>64.205963</v>
+        <v>63.98629</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.715466</v>
+        <v>63.497467</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.510086</v>
+        <v>64.289368</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>64.019577</v>
+        <v>63.800537</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1814,7 +1814,7 @@
         <v>64.629997</v>
       </c>
       <c r="F55" t="n">
-        <v>63.40155</v>
+        <v>63.184624</v>
       </c>
       <c r="G55" t="n">
         <v>602500</v>
@@ -1839,7 +1839,7 @@
         <v>65.5</v>
       </c>
       <c r="F56" t="n">
-        <v>64.25501300000001</v>
+        <v>64.03516399999999</v>
       </c>
       <c r="G56" t="n">
         <v>964200</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.333504</v>
+        <v>64.11338000000001</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.59835099999999</v>
+        <v>64.377342</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.254402</v>
+        <v>63.037983</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.332878</v>
+        <v>63.116199</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>63.166111</v>
+        <v>62.949993</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.480026</v>
+        <v>63.262844</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2014,7 +2014,7 @@
         <v>65.510002</v>
       </c>
       <c r="F63" t="n">
-        <v>64.264832</v>
+        <v>64.04495199999999</v>
       </c>
       <c r="G63" t="n">
         <v>984700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.61592899999999</v>
+        <v>64.39484400000001</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2064,7 +2064,7 @@
         <v>66.08000199999999</v>
       </c>
       <c r="F65" t="n">
-        <v>64.98967</v>
+        <v>64.767319</v>
       </c>
       <c r="G65" t="n">
         <v>690900</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.61911000000001</v>
+        <v>65.394592</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2114,7 +2114,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.727287</v>
+        <v>65.502411</v>
       </c>
       <c r="G67" t="n">
         <v>885000</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.822472</v>
+        <v>64.60069300000001</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2164,7 +2164,7 @@
         <v>65.989998</v>
       </c>
       <c r="F69" t="n">
-        <v>64.901138</v>
+        <v>64.679092</v>
       </c>
       <c r="G69" t="n">
         <v>474700</v>
@@ -2189,7 +2189,7 @@
         <v>65.949997</v>
       </c>
       <c r="F70" t="n">
-        <v>64.861801</v>
+        <v>64.639877</v>
       </c>
       <c r="G70" t="n">
         <v>3967800</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.399559</v>
+        <v>64.17923</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.819302</v>
+        <v>63.600941</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>63.101353</v>
+        <v>62.885448</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.347221</v>
+        <v>63.130486</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.258705</v>
+        <v>63.042259</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2339,7 +2339,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>63.750454</v>
+        <v>63.532341</v>
       </c>
       <c r="G76" t="n">
         <v>1076800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.406231</v>
+        <v>63.189289</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2389,7 +2389,7 @@
         <v>65.05999799999999</v>
       </c>
       <c r="F78" t="n">
-        <v>63.986496</v>
+        <v>63.767574</v>
       </c>
       <c r="G78" t="n">
         <v>543300</v>
@@ -2414,7 +2414,7 @@
         <v>65.989998</v>
       </c>
       <c r="F79" t="n">
-        <v>64.901138</v>
+        <v>64.679092</v>
       </c>
       <c r="G79" t="n">
         <v>1060400</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.281548</v>
+        <v>64.061615</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.68161</v>
+        <v>63.463726</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.59625200000001</v>
+        <v>64.375252</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.951725</v>
+        <v>62.736347</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.35174600000001</v>
+        <v>64.13157699999999</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.75599699999999</v>
+        <v>64.534424</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2589,7 +2589,7 @@
         <v>65.160004</v>
       </c>
       <c r="F86" t="n">
-        <v>64.243301</v>
+        <v>64.023506</v>
       </c>
       <c r="G86" t="n">
         <v>1471100</v>
@@ -2614,7 +2614,7 @@
         <v>64.849998</v>
       </c>
       <c r="F87" t="n">
-        <v>63.937656</v>
+        <v>63.718899</v>
       </c>
       <c r="G87" t="n">
         <v>3821600</v>
@@ -2639,7 +2639,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>63.168633</v>
+        <v>62.952503</v>
       </c>
       <c r="G88" t="n">
         <v>1507200</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.981312</v>
+        <v>62.765823</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2689,7 +2689,7 @@
         <v>64.470001</v>
       </c>
       <c r="F90" t="n">
-        <v>63.563007</v>
+        <v>63.345531</v>
       </c>
       <c r="G90" t="n">
         <v>1072100</v>
@@ -2714,7 +2714,7 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>64.15456399999999</v>
+        <v>63.935062</v>
       </c>
       <c r="G91" t="n">
         <v>1455400</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.68132</v>
+        <v>63.463436</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2764,7 +2764,7 @@
         <v>63.950001</v>
       </c>
       <c r="F93" t="n">
-        <v>63.05032</v>
+        <v>62.834599</v>
       </c>
       <c r="G93" t="n">
         <v>1566900</v>
@@ -2789,7 +2789,7 @@
         <v>63.77</v>
       </c>
       <c r="F94" t="n">
-        <v>62.872856</v>
+        <v>62.657742</v>
       </c>
       <c r="G94" t="n">
         <v>1238700</v>
@@ -2814,7 +2814,7 @@
         <v>63.610001</v>
       </c>
       <c r="F95" t="n">
-        <v>62.715103</v>
+        <v>62.50053</v>
       </c>
       <c r="G95" t="n">
         <v>842900</v>
@@ -2839,7 +2839,7 @@
         <v>63.099998</v>
       </c>
       <c r="F96" t="n">
-        <v>62.212276</v>
+        <v>61.99942</v>
       </c>
       <c r="G96" t="n">
         <v>967600</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.808048</v>
+        <v>61.596577</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2889,7 +2889,7 @@
         <v>62.450001</v>
       </c>
       <c r="F98" t="n">
-        <v>61.571426</v>
+        <v>61.360764</v>
       </c>
       <c r="G98" t="n">
         <v>1482500</v>
@@ -2914,7 +2914,7 @@
         <v>62.59</v>
       </c>
       <c r="F99" t="n">
-        <v>61.709454</v>
+        <v>61.498318</v>
       </c>
       <c r="G99" t="n">
         <v>1003600</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.453114</v>
+        <v>61.242859</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.246063</v>
+        <v>61.036518</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -2989,7 +2989,7 @@
         <v>62.490002</v>
       </c>
       <c r="F102" t="n">
-        <v>61.61087</v>
+        <v>61.400066</v>
       </c>
       <c r="G102" t="n">
         <v>2730800</v>
@@ -3014,7 +3014,7 @@
         <v>63.139999</v>
       </c>
       <c r="F103" t="n">
-        <v>62.251717</v>
+        <v>62.038727</v>
       </c>
       <c r="G103" t="n">
         <v>1069200</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.79398</v>
+        <v>62.579132</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>63.020359</v>
+        <v>62.804741</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.427227</v>
+        <v>62.213642</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3114,7 +3114,7 @@
         <v>63.060001</v>
       </c>
       <c r="F107" t="n">
-        <v>62.338257</v>
+        <v>62.124973</v>
       </c>
       <c r="G107" t="n">
         <v>642900</v>
@@ -3139,7 +3139,7 @@
         <v>63.330002</v>
       </c>
       <c r="F108" t="n">
-        <v>62.605167</v>
+        <v>62.390965</v>
       </c>
       <c r="G108" t="n">
         <v>862300</v>
@@ -3164,7 +3164,7 @@
         <v>62.43</v>
       </c>
       <c r="F109" t="n">
-        <v>61.715469</v>
+        <v>61.504311</v>
       </c>
       <c r="G109" t="n">
         <v>1401500</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.427227</v>
+        <v>62.213642</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3214,7 +3214,7 @@
         <v>63.099998</v>
       </c>
       <c r="F111" t="n">
-        <v>62.377796</v>
+        <v>62.164375</v>
       </c>
       <c r="G111" t="n">
         <v>753400</v>
@@ -3239,7 +3239,7 @@
         <v>63.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>62.496426</v>
+        <v>62.282597</v>
       </c>
       <c r="G112" t="n">
         <v>1210000</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.90329</v>
+        <v>61.691494</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3289,7 +3289,7 @@
         <v>62.990002</v>
       </c>
       <c r="F114" t="n">
-        <v>62.269058</v>
+        <v>62.056011</v>
       </c>
       <c r="G114" t="n">
         <v>2601500</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.881962</v>
+        <v>62.666813</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3339,7 +3339,7 @@
         <v>63.389999</v>
       </c>
       <c r="F116" t="n">
-        <v>62.664482</v>
+        <v>62.450077</v>
       </c>
       <c r="G116" t="n">
         <v>1007300</v>
@@ -3364,7 +3364,7 @@
         <v>63.77</v>
       </c>
       <c r="F117" t="n">
-        <v>63.040131</v>
+        <v>62.824444</v>
       </c>
       <c r="G117" t="n">
         <v>1103600</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>63.188412</v>
+        <v>62.972221</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3414,7 +3414,7 @@
         <v>63.240002</v>
       </c>
       <c r="F119" t="n">
-        <v>62.516197</v>
+        <v>62.302299</v>
       </c>
       <c r="G119" t="n">
         <v>856300</v>
@@ -3439,7 +3439,7 @@
         <v>63.77</v>
       </c>
       <c r="F120" t="n">
-        <v>63.040131</v>
+        <v>62.824444</v>
       </c>
       <c r="G120" t="n">
         <v>1044200</v>
@@ -3464,7 +3464,7 @@
         <v>63.84</v>
       </c>
       <c r="F121" t="n">
-        <v>63.109329</v>
+        <v>62.893406</v>
       </c>
       <c r="G121" t="n">
         <v>708800</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.941273</v>
+        <v>62.725922</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3514,7 +3514,7 @@
         <v>63.959999</v>
       </c>
       <c r="F123" t="n">
-        <v>63.227959</v>
+        <v>63.011623</v>
       </c>
       <c r="G123" t="n">
         <v>1397500</v>
@@ -3539,7 +3539,7 @@
         <v>62.889999</v>
       </c>
       <c r="F124" t="n">
-        <v>62.1702</v>
+        <v>61.957493</v>
       </c>
       <c r="G124" t="n">
         <v>3689200</v>
@@ -3564,7 +3564,7 @@
         <v>63.529999</v>
       </c>
       <c r="F125" t="n">
-        <v>62.802876</v>
+        <v>62.588005</v>
       </c>
       <c r="G125" t="n">
         <v>2320500</v>
@@ -3589,7 +3589,7 @@
         <v>63.02</v>
       </c>
       <c r="F126" t="n">
-        <v>62.460938</v>
+        <v>62.247234</v>
       </c>
       <c r="G126" t="n">
         <v>1202800</v>
@@ -3614,7 +3614,7 @@
         <v>62.439999</v>
       </c>
       <c r="F127" t="n">
-        <v>61.886082</v>
+        <v>61.674339</v>
       </c>
       <c r="G127" t="n">
         <v>1878800</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>61.033714</v>
+        <v>60.82489</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3664,7 +3664,7 @@
         <v>61.279999</v>
       </c>
       <c r="F129" t="n">
-        <v>60.73637</v>
+        <v>60.528568</v>
       </c>
       <c r="G129" t="n">
         <v>2731500</v>
@@ -3689,7 +3689,7 @@
         <v>61.400002</v>
       </c>
       <c r="F130" t="n">
-        <v>60.855312</v>
+        <v>60.647095</v>
       </c>
       <c r="G130" t="n">
         <v>2814100</v>
@@ -3714,7 +3714,7 @@
         <v>61.669998</v>
       </c>
       <c r="F131" t="n">
-        <v>61.12291</v>
+        <v>60.913788</v>
       </c>
       <c r="G131" t="n">
         <v>1546100</v>
@@ -3739,7 +3739,7 @@
         <v>62.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>61.826618</v>
+        <v>61.615082</v>
       </c>
       <c r="G132" t="n">
         <v>2163600</v>
@@ -3764,7 +3764,7 @@
         <v>63</v>
       </c>
       <c r="F133" t="n">
-        <v>62.441116</v>
+        <v>62.227478</v>
       </c>
       <c r="G133" t="n">
         <v>1489500</v>
@@ -3789,7 +3789,7 @@
         <v>62.689999</v>
       </c>
       <c r="F134" t="n">
-        <v>62.133865</v>
+        <v>61.921276</v>
       </c>
       <c r="G134" t="n">
         <v>1900200</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>62.163601</v>
+        <v>61.950916</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.421291</v>
+        <v>62.207726</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3864,7 +3864,7 @@
         <v>63.619999</v>
       </c>
       <c r="F137" t="n">
-        <v>63.055614</v>
+        <v>62.839878</v>
       </c>
       <c r="G137" t="n">
         <v>10552200</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.302357</v>
+        <v>62.089195</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3914,7 +3914,7 @@
         <v>62.91</v>
       </c>
       <c r="F139" t="n">
-        <v>62.351917</v>
+        <v>62.13858</v>
       </c>
       <c r="G139" t="n">
         <v>3462100</v>
@@ -3939,7 +3939,7 @@
         <v>62.68</v>
       </c>
       <c r="F140" t="n">
-        <v>62.123955</v>
+        <v>61.9114</v>
       </c>
       <c r="G140" t="n">
         <v>1398500</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.995106</v>
+        <v>61.782997</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -3989,7 +3989,7 @@
         <v>62.669998</v>
       </c>
       <c r="F142" t="n">
-        <v>62.114044</v>
+        <v>61.901524</v>
       </c>
       <c r="G142" t="n">
         <v>1054600</v>
@@ -4014,7 +4014,7 @@
         <v>61.5</v>
       </c>
       <c r="F143" t="n">
-        <v>60.954426</v>
+        <v>60.745876</v>
       </c>
       <c r="G143" t="n">
         <v>1996700</v>
@@ -4039,7 +4039,7 @@
         <v>61.779999</v>
       </c>
       <c r="F144" t="n">
-        <v>61.231937</v>
+        <v>61.022438</v>
       </c>
       <c r="G144" t="n">
         <v>1353900</v>
@@ -4064,7 +4064,7 @@
         <v>61.950001</v>
       </c>
       <c r="F145" t="n">
-        <v>61.400433</v>
+        <v>61.190353</v>
       </c>
       <c r="G145" t="n">
         <v>1596300</v>
@@ -4089,7 +4089,7 @@
         <v>60.830002</v>
       </c>
       <c r="F146" t="n">
-        <v>60.453335</v>
+        <v>60.246498</v>
       </c>
       <c r="G146" t="n">
         <v>1856900</v>
@@ -4114,7 +4114,7 @@
         <v>60.27</v>
       </c>
       <c r="F147" t="n">
-        <v>59.896801</v>
+        <v>59.691864</v>
       </c>
       <c r="G147" t="n">
         <v>2002200</v>
@@ -4139,7 +4139,7 @@
         <v>59.009998</v>
       </c>
       <c r="F148" t="n">
-        <v>58.6446</v>
+        <v>58.443951</v>
       </c>
       <c r="G148" t="n">
         <v>3247300</v>
@@ -4164,7 +4164,7 @@
         <v>60.009998</v>
       </c>
       <c r="F149" t="n">
-        <v>59.638409</v>
+        <v>59.434361</v>
       </c>
       <c r="G149" t="n">
         <v>1608200</v>
@@ -4189,7 +4189,7 @@
         <v>59.5</v>
       </c>
       <c r="F150" t="n">
-        <v>59.131565</v>
+        <v>58.929253</v>
       </c>
       <c r="G150" t="n">
         <v>1909300</v>
@@ -4214,7 +4214,7 @@
         <v>60.150002</v>
       </c>
       <c r="F151" t="n">
-        <v>59.777546</v>
+        <v>59.573021</v>
       </c>
       <c r="G151" t="n">
         <v>1325100</v>
@@ -4239,7 +4239,7 @@
         <v>60.439999</v>
       </c>
       <c r="F152" t="n">
-        <v>60.065746</v>
+        <v>59.860233</v>
       </c>
       <c r="G152" t="n">
         <v>1267200</v>
@@ -4264,7 +4264,7 @@
         <v>59.549999</v>
       </c>
       <c r="F153" t="n">
-        <v>59.181259</v>
+        <v>58.978771</v>
       </c>
       <c r="G153" t="n">
         <v>1349300</v>
@@ -4289,7 +4289,7 @@
         <v>59.349998</v>
       </c>
       <c r="F154" t="n">
-        <v>58.982494</v>
+        <v>58.780693</v>
       </c>
       <c r="G154" t="n">
         <v>1570200</v>
@@ -4314,7 +4314,7 @@
         <v>59.240002</v>
       </c>
       <c r="F155" t="n">
-        <v>58.87318</v>
+        <v>58.671749</v>
       </c>
       <c r="G155" t="n">
         <v>1211700</v>
@@ -4339,7 +4339,7 @@
         <v>58.93</v>
       </c>
       <c r="F156" t="n">
-        <v>58.565098</v>
+        <v>58.364723</v>
       </c>
       <c r="G156" t="n">
         <v>1309500</v>
@@ -4364,7 +4364,7 @@
         <v>58.5</v>
       </c>
       <c r="F157" t="n">
-        <v>58.13776</v>
+        <v>57.938843</v>
       </c>
       <c r="G157" t="n">
         <v>1981800</v>
@@ -4389,7 +4389,7 @@
         <v>58.27</v>
       </c>
       <c r="F158" t="n">
-        <v>57.909184</v>
+        <v>57.711052</v>
       </c>
       <c r="G158" t="n">
         <v>1181800</v>
@@ -4414,7 +4414,7 @@
         <v>58.450001</v>
       </c>
       <c r="F159" t="n">
-        <v>58.08807</v>
+        <v>57.889328</v>
       </c>
       <c r="G159" t="n">
         <v>1072200</v>
@@ -4439,7 +4439,7 @@
         <v>57.709999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.35265</v>
+        <v>57.156425</v>
       </c>
       <c r="G160" t="n">
         <v>3322600</v>
@@ -4464,7 +4464,7 @@
         <v>58.080002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.720364</v>
+        <v>57.522877</v>
       </c>
       <c r="G161" t="n">
         <v>1116400</v>
@@ -4489,7 +4489,7 @@
         <v>59.330002</v>
       </c>
       <c r="F162" t="n">
-        <v>58.962624</v>
+        <v>58.760887</v>
       </c>
       <c r="G162" t="n">
         <v>1410300</v>
@@ -4514,7 +4514,7 @@
         <v>59.060001</v>
       </c>
       <c r="F163" t="n">
-        <v>58.694294</v>
+        <v>58.493473</v>
       </c>
       <c r="G163" t="n">
         <v>1055600</v>
@@ -4539,7 +4539,7 @@
         <v>59.18</v>
       </c>
       <c r="F164" t="n">
-        <v>58.813549</v>
+        <v>58.612324</v>
       </c>
       <c r="G164" t="n">
         <v>1378700</v>
@@ -4564,7 +4564,7 @@
         <v>59.25</v>
       </c>
       <c r="F165" t="n">
-        <v>58.883118</v>
+        <v>58.681652</v>
       </c>
       <c r="G165" t="n">
         <v>1187300</v>
@@ -4589,7 +4589,7 @@
         <v>59.860001</v>
       </c>
       <c r="F166" t="n">
-        <v>59.489338</v>
+        <v>59.285801</v>
       </c>
       <c r="G166" t="n">
         <v>2711500</v>
@@ -4614,7 +4614,7 @@
         <v>59.82</v>
       </c>
       <c r="F167" t="n">
-        <v>59.449589</v>
+        <v>59.246185</v>
       </c>
       <c r="G167" t="n">
         <v>1870900</v>
@@ -4639,7 +4639,7 @@
         <v>60.07</v>
       </c>
       <c r="F168" t="n">
-        <v>59.698036</v>
+        <v>59.493786</v>
       </c>
       <c r="G168" t="n">
         <v>1652400</v>
@@ -4664,7 +4664,7 @@
         <v>59</v>
       </c>
       <c r="F169" t="n">
-        <v>58.811871</v>
+        <v>58.610653</v>
       </c>
       <c r="G169" t="n">
         <v>1492900</v>
@@ -4689,7 +4689,7 @@
         <v>58.290001</v>
       </c>
       <c r="F170" t="n">
-        <v>58.104137</v>
+        <v>57.905338</v>
       </c>
       <c r="G170" t="n">
         <v>1435700</v>
@@ -4714,7 +4714,7 @@
         <v>58.400002</v>
       </c>
       <c r="F171" t="n">
-        <v>58.213787</v>
+        <v>58.014614</v>
       </c>
       <c r="G171" t="n">
         <v>1215900</v>
@@ -4739,7 +4739,7 @@
         <v>58.52</v>
       </c>
       <c r="F172" t="n">
-        <v>58.333405</v>
+        <v>58.13382</v>
       </c>
       <c r="G172" t="n">
         <v>914500</v>
@@ -4764,7 +4764,7 @@
         <v>58.720001</v>
       </c>
       <c r="F173" t="n">
-        <v>58.532764</v>
+        <v>58.3325</v>
       </c>
       <c r="G173" t="n">
         <v>1114000</v>
@@ -4789,7 +4789,7 @@
         <v>58.360001</v>
       </c>
       <c r="F174" t="n">
-        <v>58.173912</v>
+        <v>57.974876</v>
       </c>
       <c r="G174" t="n">
         <v>776600</v>
@@ -4814,7 +4814,7 @@
         <v>58.630001</v>
       </c>
       <c r="F175" t="n">
-        <v>58.443054</v>
+        <v>58.243092</v>
       </c>
       <c r="G175" t="n">
         <v>1067700</v>
@@ -4839,7 +4839,7 @@
         <v>58.66</v>
       </c>
       <c r="F176" t="n">
-        <v>58.472958</v>
+        <v>58.272892</v>
       </c>
       <c r="G176" t="n">
         <v>1004800</v>
@@ -4864,7 +4864,7 @@
         <v>58.310001</v>
       </c>
       <c r="F177" t="n">
-        <v>58.124073</v>
+        <v>57.925205</v>
       </c>
       <c r="G177" t="n">
         <v>920500</v>
@@ -4889,7 +4889,7 @@
         <v>58.009998</v>
       </c>
       <c r="F178" t="n">
-        <v>57.825027</v>
+        <v>57.627182</v>
       </c>
       <c r="G178" t="n">
         <v>2990600</v>
@@ -4914,7 +4914,7 @@
         <v>58.240002</v>
       </c>
       <c r="F179" t="n">
-        <v>58.054298</v>
+        <v>57.855667</v>
       </c>
       <c r="G179" t="n">
         <v>858800</v>
@@ -4939,7 +4939,7 @@
         <v>57.880001</v>
       </c>
       <c r="F180" t="n">
-        <v>57.695446</v>
+        <v>57.498043</v>
       </c>
       <c r="G180" t="n">
         <v>1071800</v>
@@ -4964,7 +4964,7 @@
         <v>57.990002</v>
       </c>
       <c r="F181" t="n">
-        <v>57.805096</v>
+        <v>57.607315</v>
       </c>
       <c r="G181" t="n">
         <v>1575100</v>
@@ -4989,7 +4989,7 @@
         <v>56.669998</v>
       </c>
       <c r="F182" t="n">
-        <v>56.4893</v>
+        <v>56.296024</v>
       </c>
       <c r="G182" t="n">
         <v>2534400</v>
@@ -5014,7 +5014,7 @@
         <v>57.09</v>
       </c>
       <c r="F183" t="n">
-        <v>56.907963</v>
+        <v>56.713257</v>
       </c>
       <c r="G183" t="n">
         <v>1077300</v>
@@ -5039,7 +5039,7 @@
         <v>55.82</v>
       </c>
       <c r="F184" t="n">
-        <v>55.64201</v>
+        <v>55.451637</v>
       </c>
       <c r="G184" t="n">
         <v>2158100</v>
@@ -5064,7 +5064,7 @@
         <v>55.639999</v>
       </c>
       <c r="F185" t="n">
-        <v>55.462585</v>
+        <v>55.272823</v>
       </c>
       <c r="G185" t="n">
         <v>2041400</v>
@@ -5089,7 +5089,7 @@
         <v>55.349998</v>
       </c>
       <c r="F186" t="n">
-        <v>55.173508</v>
+        <v>54.984737</v>
       </c>
       <c r="G186" t="n">
         <v>2249800</v>
@@ -5114,7 +5114,7 @@
         <v>55.470001</v>
       </c>
       <c r="F187" t="n">
-        <v>55.293129</v>
+        <v>55.103951</v>
       </c>
       <c r="G187" t="n">
         <v>2287400</v>
@@ -5139,7 +5139,7 @@
         <v>55.509998</v>
       </c>
       <c r="F188" t="n">
-        <v>55.333</v>
+        <v>55.143681</v>
       </c>
       <c r="G188" t="n">
         <v>2529900</v>
@@ -5164,7 +5164,7 @@
         <v>54.459999</v>
       </c>
       <c r="F189" t="n">
-        <v>54.459999</v>
+        <v>54.273666</v>
       </c>
       <c r="G189" t="n">
         <v>3426700</v>
@@ -5189,7 +5189,7 @@
         <v>53.41</v>
       </c>
       <c r="F190" t="n">
-        <v>53.41</v>
+        <v>53.227261</v>
       </c>
       <c r="G190" t="n">
         <v>3441000</v>
@@ -5214,7 +5214,7 @@
         <v>54.060001</v>
       </c>
       <c r="F191" t="n">
-        <v>54.060001</v>
+        <v>53.875038</v>
       </c>
       <c r="G191" t="n">
         <v>4441500</v>
@@ -5239,7 +5239,7 @@
         <v>53.869999</v>
       </c>
       <c r="F192" t="n">
-        <v>53.869999</v>
+        <v>53.685688</v>
       </c>
       <c r="G192" t="n">
         <v>2396800</v>
@@ -5264,7 +5264,7 @@
         <v>53.25</v>
       </c>
       <c r="F193" t="n">
-        <v>53.25</v>
+        <v>53.06781</v>
       </c>
       <c r="G193" t="n">
         <v>2352400</v>
@@ -5289,7 +5289,7 @@
         <v>54.400002</v>
       </c>
       <c r="F194" t="n">
-        <v>54.400002</v>
+        <v>54.213875</v>
       </c>
       <c r="G194" t="n">
         <v>2133100</v>
@@ -5314,7 +5314,7 @@
         <v>54.32</v>
       </c>
       <c r="F195" t="n">
-        <v>54.32</v>
+        <v>54.134148</v>
       </c>
       <c r="G195" t="n">
         <v>2744200</v>
@@ -5339,7 +5339,7 @@
         <v>55.34</v>
       </c>
       <c r="F196" t="n">
-        <v>55.34</v>
+        <v>55.150658</v>
       </c>
       <c r="G196" t="n">
         <v>2609500</v>
@@ -5364,7 +5364,7 @@
         <v>53.990002</v>
       </c>
       <c r="F197" t="n">
-        <v>53.990002</v>
+        <v>53.805279</v>
       </c>
       <c r="G197" t="n">
         <v>2546900</v>
@@ -5389,7 +5389,7 @@
         <v>54.860001</v>
       </c>
       <c r="F198" t="n">
-        <v>54.860001</v>
+        <v>54.672302</v>
       </c>
       <c r="G198" t="n">
         <v>1466500</v>
@@ -5414,7 +5414,7 @@
         <v>54.060001</v>
       </c>
       <c r="F199" t="n">
-        <v>54.060001</v>
+        <v>53.875038</v>
       </c>
       <c r="G199" t="n">
         <v>3666100</v>
@@ -5439,7 +5439,7 @@
         <v>53.459999</v>
       </c>
       <c r="F200" t="n">
-        <v>53.459999</v>
+        <v>53.277088</v>
       </c>
       <c r="G200" t="n">
         <v>5448800</v>
@@ -5464,7 +5464,7 @@
         <v>52.98</v>
       </c>
       <c r="F201" t="n">
-        <v>52.98</v>
+        <v>52.798733</v>
       </c>
       <c r="G201" t="n">
         <v>3197000</v>
@@ -5489,7 +5489,7 @@
         <v>52.049999</v>
       </c>
       <c r="F202" t="n">
-        <v>52.049999</v>
+        <v>51.871914</v>
       </c>
       <c r="G202" t="n">
         <v>4203300</v>
@@ -5514,7 +5514,7 @@
         <v>52.369999</v>
       </c>
       <c r="F203" t="n">
-        <v>52.369999</v>
+        <v>52.190819</v>
       </c>
       <c r="G203" t="n">
         <v>2452700</v>
@@ -5539,7 +5539,7 @@
         <v>52.970001</v>
       </c>
       <c r="F204" t="n">
-        <v>52.970001</v>
+        <v>52.788769</v>
       </c>
       <c r="G204" t="n">
         <v>2253400</v>
@@ -5564,7 +5564,7 @@
         <v>53.529999</v>
       </c>
       <c r="F205" t="n">
-        <v>53.529999</v>
+        <v>53.346851</v>
       </c>
       <c r="G205" t="n">
         <v>3715000</v>
@@ -5589,7 +5589,7 @@
         <v>52.459999</v>
       </c>
       <c r="F206" t="n">
-        <v>52.459999</v>
+        <v>52.28051</v>
       </c>
       <c r="G206" t="n">
         <v>2397000</v>
@@ -5614,7 +5614,7 @@
         <v>53.200001</v>
       </c>
       <c r="F207" t="n">
-        <v>53.200001</v>
+        <v>53.017982</v>
       </c>
       <c r="G207" t="n">
         <v>2268400</v>
@@ -5639,7 +5639,7 @@
         <v>53.07</v>
       </c>
       <c r="F208" t="n">
-        <v>53.07</v>
+        <v>52.888424</v>
       </c>
       <c r="G208" t="n">
         <v>1746900</v>
@@ -5664,10 +5664,135 @@
         <v>52.84</v>
       </c>
       <c r="F209" t="n">
-        <v>52.84</v>
+        <v>52.65921</v>
       </c>
       <c r="G209" t="n">
         <v>2193400</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>53.040001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>53.240002</v>
+      </c>
+      <c r="D210" t="n">
+        <v>52.599998</v>
+      </c>
+      <c r="E210" t="n">
+        <v>52.610001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="G210" t="n">
+        <v>5210500</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>52.869999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>52.849998</v>
+      </c>
+      <c r="E211" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="F211" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5045700</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>54.389999</v>
+      </c>
+      <c r="C212" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="D212" t="n">
+        <v>54.130001</v>
+      </c>
+      <c r="E212" t="n">
+        <v>54.580002</v>
+      </c>
+      <c r="F212" t="n">
+        <v>54.580002</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3259900</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>55.639999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>55.779999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>54.939999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>54.950001</v>
+      </c>
+      <c r="F213" t="n">
+        <v>54.950001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2589400</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="C214" t="n">
+        <v>54.709999</v>
+      </c>
+      <c r="D214" t="n">
+        <v>54.360001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="F214" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2426338</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.001137</v>
+        <v>61.001141</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>61.789185</v>
+        <v>61.789192</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -564,7 +564,7 @@
         <v>64.83000199999999</v>
       </c>
       <c r="F5" t="n">
-        <v>63.073421</v>
+        <v>63.073418</v>
       </c>
       <c r="G5" t="n">
         <v>1327600</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.384754</v>
+        <v>63.38475</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.441029</v>
+        <v>62.441032</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>63.949051</v>
+        <v>63.949039</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.608517</v>
+        <v>63.608513</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.65924800000001</v>
+        <v>64.659256</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.725266</v>
+        <v>63.725269</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.404205</v>
+        <v>63.404213</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.435501</v>
+        <v>64.435486</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.231178</v>
+        <v>64.231171</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.041641</v>
+        <v>65.041656</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1039,7 +1039,7 @@
         <v>65.709999</v>
       </c>
       <c r="F24" t="n">
-        <v>64.085854</v>
+        <v>64.085869</v>
       </c>
       <c r="G24" t="n">
         <v>1070600</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.607975</v>
+        <v>63.607986</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.130085</v>
+        <v>63.130096</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.403172</v>
+        <v>63.403156</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>62.84726</v>
+        <v>62.847244</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1164,7 +1164,7 @@
         <v>63.75</v>
       </c>
       <c r="F29" t="n">
-        <v>62.174313</v>
+        <v>62.174305</v>
       </c>
       <c r="G29" t="n">
         <v>998200</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.691208</v>
+        <v>62.691204</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.515656</v>
+        <v>62.515652</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.228271</v>
+        <v>61.228283</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1289,7 +1289,7 @@
         <v>63.200001</v>
       </c>
       <c r="F34" t="n">
-        <v>61.637897</v>
+        <v>61.637901</v>
       </c>
       <c r="G34" t="n">
         <v>732100</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.506573</v>
+        <v>60.506569</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.501358</v>
+        <v>61.501362</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.189266</v>
+        <v>61.189274</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1489,7 +1489,7 @@
         <v>61.349998</v>
       </c>
       <c r="F42" t="n">
-        <v>59.977978</v>
+        <v>59.977974</v>
       </c>
       <c r="G42" t="n">
         <v>1611500</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.268456</v>
+        <v>61.268463</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>60.877403</v>
+        <v>60.877399</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.20002</v>
+        <v>61.200024</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.268456</v>
+        <v>61.268463</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.463985</v>
+        <v>61.463989</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.448582</v>
+        <v>63.448593</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.780972</v>
+        <v>63.780987</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>63.98629</v>
+        <v>63.986279</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.497467</v>
+        <v>63.497471</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.289368</v>
+        <v>64.28936</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.11338000000001</v>
+        <v>64.113373</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.037983</v>
+        <v>63.037979</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.116199</v>
+        <v>63.116184</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>62.949993</v>
+        <v>62.949989</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.262844</v>
+        <v>63.26284</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.39484400000001</v>
+        <v>64.394859</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2064,7 +2064,7 @@
         <v>66.08000199999999</v>
       </c>
       <c r="F65" t="n">
-        <v>64.767319</v>
+        <v>64.767303</v>
       </c>
       <c r="G65" t="n">
         <v>690900</v>
@@ -2114,7 +2114,7 @@
         <v>66.83000199999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.502411</v>
+        <v>65.502403</v>
       </c>
       <c r="G67" t="n">
         <v>885000</v>
@@ -2189,7 +2189,7 @@
         <v>65.949997</v>
       </c>
       <c r="F70" t="n">
-        <v>64.639877</v>
+        <v>64.63988500000001</v>
       </c>
       <c r="G70" t="n">
         <v>3967800</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>62.885448</v>
+        <v>62.885456</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.130486</v>
+        <v>63.130482</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.042259</v>
+        <v>63.042271</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.189289</v>
+        <v>63.189285</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2389,7 +2389,7 @@
         <v>65.05999799999999</v>
       </c>
       <c r="F78" t="n">
-        <v>63.767574</v>
+        <v>63.767563</v>
       </c>
       <c r="G78" t="n">
         <v>543300</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.061615</v>
+        <v>64.0616</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.463726</v>
+        <v>63.463734</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.375252</v>
+        <v>64.375259</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.736347</v>
+        <v>62.73634</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.13157699999999</v>
+        <v>64.131569</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.534424</v>
+        <v>64.534431</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2589,7 +2589,7 @@
         <v>65.160004</v>
       </c>
       <c r="F86" t="n">
-        <v>64.023506</v>
+        <v>64.023499</v>
       </c>
       <c r="G86" t="n">
         <v>1471100</v>
@@ -2639,7 +2639,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>62.952503</v>
+        <v>62.952507</v>
       </c>
       <c r="G88" t="n">
         <v>1507200</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.765823</v>
+        <v>62.765827</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2714,7 +2714,7 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>63.935062</v>
+        <v>63.93507</v>
       </c>
       <c r="G91" t="n">
         <v>1455400</v>
@@ -2764,7 +2764,7 @@
         <v>63.950001</v>
       </c>
       <c r="F93" t="n">
-        <v>62.834599</v>
+        <v>62.834602</v>
       </c>
       <c r="G93" t="n">
         <v>1566900</v>
@@ -2889,7 +2889,7 @@
         <v>62.450001</v>
       </c>
       <c r="F98" t="n">
-        <v>61.360764</v>
+        <v>61.36076</v>
       </c>
       <c r="G98" t="n">
         <v>1482500</v>
@@ -2914,7 +2914,7 @@
         <v>62.59</v>
       </c>
       <c r="F99" t="n">
-        <v>61.498318</v>
+        <v>61.498322</v>
       </c>
       <c r="G99" t="n">
         <v>1003600</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.242859</v>
+        <v>61.242855</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.036518</v>
+        <v>61.036514</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.579132</v>
+        <v>62.579136</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>62.804741</v>
+        <v>62.804737</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.213642</v>
+        <v>62.213634</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3114,7 +3114,7 @@
         <v>63.060001</v>
       </c>
       <c r="F107" t="n">
-        <v>62.124973</v>
+        <v>62.124969</v>
       </c>
       <c r="G107" t="n">
         <v>642900</v>
@@ -3139,7 +3139,7 @@
         <v>63.330002</v>
       </c>
       <c r="F108" t="n">
-        <v>62.390965</v>
+        <v>62.390968</v>
       </c>
       <c r="G108" t="n">
         <v>862300</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.213642</v>
+        <v>62.213634</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3239,7 +3239,7 @@
         <v>63.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>62.282597</v>
+        <v>62.2826</v>
       </c>
       <c r="G112" t="n">
         <v>1210000</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.691494</v>
+        <v>61.691498</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3289,7 +3289,7 @@
         <v>62.990002</v>
       </c>
       <c r="F114" t="n">
-        <v>62.056011</v>
+        <v>62.056007</v>
       </c>
       <c r="G114" t="n">
         <v>2601500</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.666813</v>
+        <v>62.666817</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>62.972221</v>
+        <v>62.972218</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3414,7 +3414,7 @@
         <v>63.240002</v>
       </c>
       <c r="F119" t="n">
-        <v>62.302299</v>
+        <v>62.302303</v>
       </c>
       <c r="G119" t="n">
         <v>856300</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.725922</v>
+        <v>62.725925</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3564,7 +3564,7 @@
         <v>63.529999</v>
       </c>
       <c r="F125" t="n">
-        <v>62.588005</v>
+        <v>62.588001</v>
       </c>
       <c r="G125" t="n">
         <v>2320500</v>
@@ -3589,7 +3589,7 @@
         <v>63.02</v>
       </c>
       <c r="F126" t="n">
-        <v>62.247234</v>
+        <v>62.247231</v>
       </c>
       <c r="G126" t="n">
         <v>1202800</v>
@@ -3614,7 +3614,7 @@
         <v>62.439999</v>
       </c>
       <c r="F127" t="n">
-        <v>61.674339</v>
+        <v>61.674343</v>
       </c>
       <c r="G127" t="n">
         <v>1878800</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>60.82489</v>
+        <v>60.824886</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3689,7 +3689,7 @@
         <v>61.400002</v>
       </c>
       <c r="F130" t="n">
-        <v>60.647095</v>
+        <v>60.647099</v>
       </c>
       <c r="G130" t="n">
         <v>2814100</v>
@@ -3714,7 +3714,7 @@
         <v>61.669998</v>
       </c>
       <c r="F131" t="n">
-        <v>60.913788</v>
+        <v>60.91378</v>
       </c>
       <c r="G131" t="n">
         <v>1546100</v>
@@ -3789,7 +3789,7 @@
         <v>62.689999</v>
       </c>
       <c r="F134" t="n">
-        <v>61.921276</v>
+        <v>61.92128</v>
       </c>
       <c r="G134" t="n">
         <v>1900200</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>61.950916</v>
+        <v>61.950912</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3864,7 +3864,7 @@
         <v>63.619999</v>
       </c>
       <c r="F137" t="n">
-        <v>62.839878</v>
+        <v>62.839874</v>
       </c>
       <c r="G137" t="n">
         <v>10552200</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.089195</v>
+        <v>62.089191</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3939,7 +3939,7 @@
         <v>62.68</v>
       </c>
       <c r="F140" t="n">
-        <v>61.9114</v>
+        <v>61.911404</v>
       </c>
       <c r="G140" t="n">
         <v>1398500</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.782997</v>
+        <v>61.782993</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -4064,7 +4064,7 @@
         <v>61.950001</v>
       </c>
       <c r="F145" t="n">
-        <v>61.190353</v>
+        <v>61.190357</v>
       </c>
       <c r="G145" t="n">
         <v>1596300</v>
@@ -4114,7 +4114,7 @@
         <v>60.27</v>
       </c>
       <c r="F147" t="n">
-        <v>59.691864</v>
+        <v>59.691868</v>
       </c>
       <c r="G147" t="n">
         <v>2002200</v>
@@ -4239,7 +4239,7 @@
         <v>60.439999</v>
       </c>
       <c r="F152" t="n">
-        <v>59.860233</v>
+        <v>59.860237</v>
       </c>
       <c r="G152" t="n">
         <v>1267200</v>
@@ -4264,7 +4264,7 @@
         <v>59.549999</v>
       </c>
       <c r="F153" t="n">
-        <v>58.978771</v>
+        <v>58.978775</v>
       </c>
       <c r="G153" t="n">
         <v>1349300</v>
@@ -4289,7 +4289,7 @@
         <v>59.349998</v>
       </c>
       <c r="F154" t="n">
-        <v>58.780693</v>
+        <v>58.780689</v>
       </c>
       <c r="G154" t="n">
         <v>1570200</v>
@@ -4364,7 +4364,7 @@
         <v>58.5</v>
       </c>
       <c r="F157" t="n">
-        <v>57.938843</v>
+        <v>57.938847</v>
       </c>
       <c r="G157" t="n">
         <v>1981800</v>
@@ -4414,7 +4414,7 @@
         <v>58.450001</v>
       </c>
       <c r="F159" t="n">
-        <v>57.889328</v>
+        <v>57.889324</v>
       </c>
       <c r="G159" t="n">
         <v>1072200</v>
@@ -4439,7 +4439,7 @@
         <v>57.709999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.156425</v>
+        <v>57.156422</v>
       </c>
       <c r="G160" t="n">
         <v>3322600</v>
@@ -4514,7 +4514,7 @@
         <v>59.060001</v>
       </c>
       <c r="F163" t="n">
-        <v>58.493473</v>
+        <v>58.493477</v>
       </c>
       <c r="G163" t="n">
         <v>1055600</v>
@@ -4639,7 +4639,7 @@
         <v>60.07</v>
       </c>
       <c r="F168" t="n">
-        <v>59.493786</v>
+        <v>59.493782</v>
       </c>
       <c r="G168" t="n">
         <v>1652400</v>
@@ -4664,7 +4664,7 @@
         <v>59</v>
       </c>
       <c r="F169" t="n">
-        <v>58.610653</v>
+        <v>58.610649</v>
       </c>
       <c r="G169" t="n">
         <v>1492900</v>
@@ -4789,7 +4789,7 @@
         <v>58.360001</v>
       </c>
       <c r="F174" t="n">
-        <v>57.974876</v>
+        <v>57.974873</v>
       </c>
       <c r="G174" t="n">
         <v>776600</v>
@@ -4814,7 +4814,7 @@
         <v>58.630001</v>
       </c>
       <c r="F175" t="n">
-        <v>58.243092</v>
+        <v>58.243095</v>
       </c>
       <c r="G175" t="n">
         <v>1067700</v>
@@ -4839,7 +4839,7 @@
         <v>58.66</v>
       </c>
       <c r="F176" t="n">
-        <v>58.272892</v>
+        <v>58.272896</v>
       </c>
       <c r="G176" t="n">
         <v>1004800</v>
@@ -4914,7 +4914,7 @@
         <v>58.240002</v>
       </c>
       <c r="F179" t="n">
-        <v>57.855667</v>
+        <v>57.855671</v>
       </c>
       <c r="G179" t="n">
         <v>858800</v>
@@ -4939,7 +4939,7 @@
         <v>57.880001</v>
       </c>
       <c r="F180" t="n">
-        <v>57.498043</v>
+        <v>57.498047</v>
       </c>
       <c r="G180" t="n">
         <v>1071800</v>
@@ -4964,7 +4964,7 @@
         <v>57.990002</v>
       </c>
       <c r="F181" t="n">
-        <v>57.607315</v>
+        <v>57.607319</v>
       </c>
       <c r="G181" t="n">
         <v>1575100</v>
@@ -5039,7 +5039,7 @@
         <v>55.82</v>
       </c>
       <c r="F184" t="n">
-        <v>55.451637</v>
+        <v>55.451633</v>
       </c>
       <c r="G184" t="n">
         <v>2158100</v>
@@ -5114,7 +5114,7 @@
         <v>55.470001</v>
       </c>
       <c r="F187" t="n">
-        <v>55.103951</v>
+        <v>55.103947</v>
       </c>
       <c r="G187" t="n">
         <v>2287400</v>
@@ -5792,7 +5792,57 @@
         <v>54.48</v>
       </c>
       <c r="G214" t="n">
-        <v>2426338</v>
+        <v>2427000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>54.959999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="D215" t="n">
+        <v>54.939999</v>
+      </c>
+      <c r="E215" t="n">
+        <v>55.209999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>55.209999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2872800</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>55.439999</v>
+      </c>
+      <c r="C216" t="n">
+        <v>56.084999</v>
+      </c>
+      <c r="D216" t="n">
+        <v>55.400002</v>
+      </c>
+      <c r="E216" t="n">
+        <v>56.02</v>
+      </c>
+      <c r="F216" t="n">
+        <v>56.02</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2794376</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>61.993492</v>
+        <v>61.993496</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -564,7 +564,7 @@
         <v>64.83000199999999</v>
       </c>
       <c r="F5" t="n">
-        <v>63.073418</v>
+        <v>63.073414</v>
       </c>
       <c r="G5" t="n">
         <v>1327600</v>
@@ -589,7 +589,7 @@
         <v>65.150002</v>
       </c>
       <c r="F6" t="n">
-        <v>63.38475</v>
+        <v>63.384762</v>
       </c>
       <c r="G6" t="n">
         <v>1937300</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.441032</v>
+        <v>62.441036</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.355572</v>
+        <v>63.355545</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.608513</v>
+        <v>63.608521</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -764,7 +764,7 @@
         <v>66.459999</v>
       </c>
       <c r="F13" t="n">
-        <v>64.659256</v>
+        <v>64.65924800000001</v>
       </c>
       <c r="G13" t="n">
         <v>827000</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.404213</v>
+        <v>63.404205</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.14362300000001</v>
+        <v>64.14361599999999</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -914,7 +914,7 @@
         <v>65.75</v>
       </c>
       <c r="F19" t="n">
-        <v>63.968487</v>
+        <v>63.968491</v>
       </c>
       <c r="G19" t="n">
         <v>893500</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.74472</v>
+        <v>63.744728</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.607986</v>
+        <v>63.607975</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.130096</v>
+        <v>63.130089</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.691204</v>
+        <v>62.691208</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.515652</v>
+        <v>62.515648</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.008514</v>
+        <v>62.008511</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.228283</v>
+        <v>61.228279</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>60.955208</v>
+        <v>60.955204</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.501362</v>
+        <v>61.501366</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1389,7 +1389,7 @@
         <v>62.290001</v>
       </c>
       <c r="F38" t="n">
-        <v>60.750397</v>
+        <v>60.750389</v>
       </c>
       <c r="G38" t="n">
         <v>1065300</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.189274</v>
+        <v>61.18927</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1514,7 +1514,7 @@
         <v>62.669998</v>
       </c>
       <c r="F43" t="n">
-        <v>61.268463</v>
+        <v>61.268456</v>
       </c>
       <c r="G43" t="n">
         <v>658900</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>60.877399</v>
+        <v>60.877411</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1589,7 +1589,7 @@
         <v>62.669998</v>
       </c>
       <c r="F46" t="n">
-        <v>61.268463</v>
+        <v>61.268456</v>
       </c>
       <c r="G46" t="n">
         <v>758100</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.448593</v>
+        <v>63.448597</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>62.813122</v>
+        <v>62.813126</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>63.986279</v>
+        <v>63.98629</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.497471</v>
+        <v>63.497459</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.28936</v>
+        <v>64.28935199999999</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.113373</v>
+        <v>64.113388</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.377342</v>
+        <v>64.377335</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>62.949989</v>
+        <v>62.949986</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -1989,7 +1989,7 @@
         <v>64.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>63.26284</v>
+        <v>63.262844</v>
       </c>
       <c r="G62" t="n">
         <v>579700</v>
@@ -2014,7 +2014,7 @@
         <v>65.510002</v>
       </c>
       <c r="F63" t="n">
-        <v>64.04495199999999</v>
+        <v>64.044937</v>
       </c>
       <c r="G63" t="n">
         <v>984700</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.394859</v>
+        <v>64.394852</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.394592</v>
+        <v>65.39458500000001</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.60069300000001</v>
+        <v>64.600685</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2164,7 +2164,7 @@
         <v>65.989998</v>
       </c>
       <c r="F69" t="n">
-        <v>64.679092</v>
+        <v>64.679085</v>
       </c>
       <c r="G69" t="n">
         <v>474700</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.130482</v>
+        <v>63.130489</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.042271</v>
+        <v>63.042263</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2339,7 +2339,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>63.532341</v>
+        <v>63.532333</v>
       </c>
       <c r="G76" t="n">
         <v>1076800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.189285</v>
+        <v>63.189293</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2389,7 +2389,7 @@
         <v>65.05999799999999</v>
       </c>
       <c r="F78" t="n">
-        <v>63.767563</v>
+        <v>63.76757</v>
       </c>
       <c r="G78" t="n">
         <v>543300</v>
@@ -2414,7 +2414,7 @@
         <v>65.989998</v>
       </c>
       <c r="F79" t="n">
-        <v>64.679092</v>
+        <v>64.679085</v>
       </c>
       <c r="G79" t="n">
         <v>1060400</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.0616</v>
+        <v>64.061607</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.463734</v>
+        <v>63.463726</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2489,7 +2489,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>64.375259</v>
+        <v>64.375252</v>
       </c>
       <c r="G82" t="n">
         <v>576700</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.534431</v>
+        <v>64.534424</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.765827</v>
+        <v>62.765823</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2689,7 +2689,7 @@
         <v>64.470001</v>
       </c>
       <c r="F90" t="n">
-        <v>63.345531</v>
+        <v>63.345535</v>
       </c>
       <c r="G90" t="n">
         <v>1072100</v>
@@ -2814,7 +2814,7 @@
         <v>63.610001</v>
       </c>
       <c r="F95" t="n">
-        <v>62.50053</v>
+        <v>62.500526</v>
       </c>
       <c r="G95" t="n">
         <v>842900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.596577</v>
+        <v>61.596573</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2939,7 +2939,7 @@
         <v>62.330002</v>
       </c>
       <c r="F100" t="n">
-        <v>61.242855</v>
+        <v>61.242859</v>
       </c>
       <c r="G100" t="n">
         <v>1284100</v>
@@ -2989,7 +2989,7 @@
         <v>62.490002</v>
       </c>
       <c r="F102" t="n">
-        <v>61.400066</v>
+        <v>61.400063</v>
       </c>
       <c r="G102" t="n">
         <v>2730800</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.579136</v>
+        <v>62.579132</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.213634</v>
+        <v>62.213638</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.213634</v>
+        <v>62.213638</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.691498</v>
+        <v>61.69149</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3289,7 +3289,7 @@
         <v>62.990002</v>
       </c>
       <c r="F114" t="n">
-        <v>62.056007</v>
+        <v>62.056011</v>
       </c>
       <c r="G114" t="n">
         <v>2601500</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>62.972218</v>
+        <v>62.972214</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3464,7 +3464,7 @@
         <v>63.84</v>
       </c>
       <c r="F121" t="n">
-        <v>62.893406</v>
+        <v>62.893402</v>
       </c>
       <c r="G121" t="n">
         <v>708800</v>
@@ -3489,7 +3489,7 @@
         <v>63.669998</v>
       </c>
       <c r="F122" t="n">
-        <v>62.725925</v>
+        <v>62.725922</v>
       </c>
       <c r="G122" t="n">
         <v>997800</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>60.824886</v>
+        <v>60.82489</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3689,7 +3689,7 @@
         <v>61.400002</v>
       </c>
       <c r="F130" t="n">
-        <v>60.647099</v>
+        <v>60.647095</v>
       </c>
       <c r="G130" t="n">
         <v>2814100</v>
@@ -3714,7 +3714,7 @@
         <v>61.669998</v>
       </c>
       <c r="F131" t="n">
-        <v>60.91378</v>
+        <v>60.913784</v>
       </c>
       <c r="G131" t="n">
         <v>1546100</v>
@@ -3739,7 +3739,7 @@
         <v>62.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>61.615082</v>
+        <v>61.615078</v>
       </c>
       <c r="G132" t="n">
         <v>2163600</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>61.950912</v>
+        <v>61.950916</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3864,7 +3864,7 @@
         <v>63.619999</v>
       </c>
       <c r="F137" t="n">
-        <v>62.839874</v>
+        <v>62.839878</v>
       </c>
       <c r="G137" t="n">
         <v>10552200</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.089191</v>
+        <v>62.089195</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.782993</v>
+        <v>61.782997</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -5830,7 +5830,7 @@
         <v>55.439999</v>
       </c>
       <c r="C216" t="n">
-        <v>56.084999</v>
+        <v>56.09</v>
       </c>
       <c r="D216" t="n">
         <v>55.400002</v>
@@ -5842,7 +5842,32 @@
         <v>56.02</v>
       </c>
       <c r="G216" t="n">
-        <v>2794376</v>
+        <v>2794500</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>55.700001</v>
+      </c>
+      <c r="C217" t="n">
+        <v>55.712502</v>
+      </c>
+      <c r="D217" t="n">
+        <v>54.435001</v>
+      </c>
+      <c r="E217" t="n">
+        <v>54.84</v>
+      </c>
+      <c r="F217" t="n">
+        <v>54.84</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2804001</v>
       </c>
     </row>
   </sheetData>
